--- a/Mundru_LabExam03Grading.xlsx
+++ b/Mundru_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>Author notation</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t xml:space="preserve">Duduct full marks for </t>
+  </si>
+  <si>
+    <t>(-2) for not writing hashcode method</t>
+  </si>
+  <si>
+    <t>(-2) for not writing equal method</t>
   </si>
 </sst>
 </file>
@@ -396,7 +402,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -408,19 +426,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -533,6 +539,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -540,15 +555,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1220,7 +1226,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table62" displayName="Table62" ref="A33:F34" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table62" displayName="Table62" ref="A33:F34" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A33:F34"/>
   <tableColumns count="6">
     <tableColumn id="1" name="S. No" dataDxfId="4"/>
@@ -1499,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,14 +1520,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1556,7 +1562,9 @@
       <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1570,7 +1578,9 @@
       <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1584,7 +1594,9 @@
       <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1598,34 +1610,36 @@
       <c r="D6" s="18">
         <v>2</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="18">
+        <v>2</v>
+      </c>
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
       </c>
       <c r="E7" s="6">
         <f>SUM(E3:E6)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1658,7 +1672,9 @@
       <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1672,7 +1688,9 @@
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1686,8 +1704,12 @@
       <c r="D12" s="2">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="13"/>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
@@ -1700,8 +1722,12 @@
       <c r="D13" s="2">
         <v>2</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="13"/>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
@@ -1716,34 +1742,36 @@
       <c r="D14" s="18">
         <v>2</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="18">
+        <v>2</v>
+      </c>
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
       </c>
       <c r="E15" s="6">
         <f>SUM(E10:E14)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1890,11 +1918,11 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
@@ -1906,14 +1934,14 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -1949,7 +1977,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="32"/>
+      <c r="F29" s="24"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
@@ -1968,11 +1996,11 @@
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -1984,14 +2012,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2030,11 +2058,11 @@
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2046,14 +2074,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2074,23 +2102,28 @@
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2098,11 +2131,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Mundru_LabExam03Grading.xlsx
+++ b/Mundru_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>Author notation</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>(-2) for not writing equal method</t>
+  </si>
+  <si>
+    <t>-1 for output of getProducts() method</t>
   </si>
 </sst>
 </file>
@@ -343,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -405,6 +408,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -417,18 +432,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1505,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,14 +1524,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1616,11 +1620,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1632,14 +1636,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1748,11 +1752,11 @@
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1764,14 +1768,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1918,11 +1922,11 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
@@ -1934,14 +1938,14 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -1976,7 +1980,9 @@
       <c r="D29" s="2">
         <v>16</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2">
+        <v>16</v>
+      </c>
       <c r="F29" s="24"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1992,34 +1998,38 @@
       <c r="D30" s="2">
         <v>4</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="13"/>
+      <c r="E30" s="2">
+        <v>3</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
       </c>
       <c r="E31" s="6">
         <f>SUM(E29:E30)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2058,11 +2068,11 @@
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2074,14 +2084,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2102,28 +2112,23 @@
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2131,6 +2136,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Mundru_LabExam03Grading.xlsx
+++ b/Mundru_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Desktop\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
   <si>
     <t>Author notation</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>-1 for output of getProducts() method</t>
+  </si>
+  <si>
+    <t>(-1)For 1 test cases failed.</t>
   </si>
 </sst>
 </file>
@@ -408,31 +411,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1510,7 +1513,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,14 +1527,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1620,11 +1623,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1636,14 +1639,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1752,11 +1755,11 @@
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1768,14 +1771,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1810,7 +1813,9 @@
       <c r="D18" s="2">
         <v>2</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1824,7 +1829,9 @@
       <c r="D19" s="2">
         <v>2</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1840,7 +1847,9 @@
       <c r="D20" s="2">
         <v>10</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2">
+        <v>10</v>
+      </c>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1918,34 +1927,36 @@
       <c r="D25" s="18">
         <v>2</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="18">
+        <v>2</v>
+      </c>
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2001,16 +2012,16 @@
       <c r="E30" s="2">
         <v>3</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2022,14 +2033,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2064,34 +2075,38 @@
       <c r="D34" s="2">
         <v>7</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="13"/>
+      <c r="E34" s="2">
+        <v>6</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
       </c>
       <c r="E35" s="6">
         <f>SUM(E34)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2112,23 +2127,28 @@
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2136,11 +2156,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Mundru_LabExam03Grading.xlsx
+++ b/Mundru_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533575\Downloads\LabExam3\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
   <si>
     <t>Author notation</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>-1 for output of getProducts() method</t>
+  </si>
+  <si>
+    <t>For incorrect Logic</t>
   </si>
 </sst>
 </file>
@@ -408,6 +411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,7 +436,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1510,7 +1513,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,14 +1527,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1620,11 +1623,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1636,14 +1639,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1752,11 +1755,11 @@
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1768,14 +1771,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1856,7 +1859,9 @@
       <c r="D21" s="2">
         <v>10</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2">
+        <v>10</v>
+      </c>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1888,8 +1893,12 @@
       <c r="D23" s="2">
         <v>10</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="13"/>
+      <c r="E23" s="2">
+        <v>7</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -1922,30 +1931,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2001,16 +2010,16 @@
       <c r="E30" s="2">
         <v>3</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2022,14 +2031,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2068,11 +2077,11 @@
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2084,14 +2093,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2112,18 +2121,18 @@
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F38" s="23"/>
     </row>

--- a/Mundru_LabExam03Grading.xlsx
+++ b/Mundru_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Desktop\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Desktop\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -412,6 +412,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -422,18 +434,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1513,7 +1513,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,14 +1527,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1623,11 +1623,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1639,14 +1639,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1755,11 +1755,11 @@
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1771,14 +1771,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1881,7 +1881,9 @@
       <c r="D22" s="2">
         <v>10</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2">
+        <v>10</v>
+      </c>
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1913,7 +1915,9 @@
       <c r="D24" s="2">
         <v>10</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2">
+        <v>10</v>
+      </c>
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1933,30 +1937,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2017,11 +2021,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2033,14 +2037,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2083,11 +2087,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2099,14 +2103,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="29"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2127,28 +2131,23 @@
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2156,6 +2155,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Mundru_LabExam03Grading.xlsx
+++ b/Mundru_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Desktop\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>Author notation</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>(-1)For 1 test cases failed.</t>
+  </si>
+  <si>
+    <t>Incorrect logic</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -424,16 +436,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1513,7 +1516,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,14 +1530,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1623,11 +1626,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1639,14 +1642,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1755,11 +1758,11 @@
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1771,14 +1774,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1865,7 +1868,9 @@
       <c r="D21" s="2">
         <v>10</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2">
+        <v>10</v>
+      </c>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1899,8 +1904,12 @@
       <c r="D23" s="2">
         <v>10</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="13"/>
+      <c r="E23" s="2">
+        <v>7</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -1937,30 +1946,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2021,11 +2030,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2037,14 +2046,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2087,11 +2096,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="29"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2103,14 +2112,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2131,23 +2140,28 @@
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2155,11 +2169,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Mundru_LabExam03Grading.xlsx
+++ b/Mundru_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533575\Downloads\LabExam3\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -161,7 +161,7 @@
     <t>(-1)For 1 test cases failed.</t>
   </si>
   <si>
-    <t>Incorrect logic</t>
+    <t>(-2) for not writing condition to check unique values</t>
   </si>
 </sst>
 </file>
@@ -415,6 +415,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -425,18 +437,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1516,7 +1516,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,14 +1530,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1626,11 +1626,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1642,14 +1642,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1758,11 +1758,11 @@
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1774,14 +1774,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1905,7 +1905,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>45</v>
@@ -1946,30 +1946,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2030,11 +2030,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2046,14 +2046,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2096,11 +2096,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2112,14 +2112,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="29"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2140,28 +2140,23 @@
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2169,6 +2164,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Mundru_LabExam03Grading.xlsx
+++ b/Mundru_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533575\Downloads\LabExam3\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533985\Desktop\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -149,12 +149,6 @@
     <t xml:space="preserve">Duduct full marks for </t>
   </si>
   <si>
-    <t>(-2) for not writing hashcode method</t>
-  </si>
-  <si>
-    <t>(-2) for not writing equal method</t>
-  </si>
-  <si>
     <t>-1 for output of getProducts() method</t>
   </si>
   <si>
@@ -162,6 +156,12 @@
   </si>
   <si>
     <t>(-2) for not writing condition to check unique values</t>
+  </si>
+  <si>
+    <t>(-1) for not writing hashcode method</t>
+  </si>
+  <si>
+    <t>(-1) for not writing equal method</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -427,16 +436,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1515,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,14 +1530,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1626,11 +1626,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1642,14 +1642,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1715,10 +1715,10 @@
         <v>2</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1733,10 +1733,10 @@
         <v>2</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1758,30 +1758,30 @@
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
       </c>
       <c r="E15" s="6">
         <f>SUM(E10:E14)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1908,7 +1908,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1946,11 +1946,11 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
@@ -1962,14 +1962,14 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2026,15 +2026,15 @@
         <v>3</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2046,14 +2046,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2092,15 +2092,15 @@
         <v>6</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="29"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2112,14 +2112,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2140,23 +2140,28 @@
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2164,11 +2169,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Mundru_LabExam03Grading.xlsx
+++ b/Mundru_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533985\Desktop\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -149,9 +149,6 @@
     <t xml:space="preserve">Duduct full marks for </t>
   </si>
   <si>
-    <t>-1 for output of getProducts() method</t>
-  </si>
-  <si>
     <t>(-1)For 1 test cases failed.</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>(-1) for not writing equal method</t>
+  </si>
+  <si>
+    <t>(-1) for incorrect output for getProducts() method. It should be 70 instead of 99</t>
   </si>
 </sst>
 </file>
@@ -415,6 +415,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -425,18 +437,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1515,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,14 +1530,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1626,11 +1626,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1642,14 +1642,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1718,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1736,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1758,11 +1758,11 @@
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1774,14 +1774,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1908,7 +1908,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1946,11 +1946,11 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
@@ -1962,14 +1962,14 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2026,15 +2026,15 @@
         <v>3</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2046,14 +2046,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2092,15 +2092,15 @@
         <v>6</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2112,14 +2112,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="29"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2140,11 +2140,11 @@
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
@@ -2157,11 +2157,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2169,6 +2164,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
